--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +574,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>136.5</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -605,14 +605,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>96.2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -636,14 +636,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>96.2</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,18 +667,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,18 +698,18 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86</v>
+        <v>118.3</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -729,14 +729,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,14 +760,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -822,14 +822,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -857,14 +857,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -888,14 +888,14 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="F15" t="n">
         <v>9</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -919,14 +919,14 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -946,18 +946,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,14 +977,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,14 +1008,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1039,18 +1039,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1070,18 +1070,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1101,18 +1101,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,18 +1132,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,18 +1163,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,18 +1194,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1463,28 +1463,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1494,28 +1494,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1525,28 +1525,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1556,28 +1556,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1587,28 +1587,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1618,28 +1618,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1649,28 +1649,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1680,28 +1680,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1721,18 +1721,18 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1752,18 +1752,18 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1787,14 +1787,14 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>10</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1814,18 +1814,18 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1849,14 +1849,14 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1880,14 +1880,14 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="F47" t="n">
         <v>9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1911,14 +1911,14 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="F48" t="n">
         <v>10</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1938,18 +1938,18 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1969,18 +1969,18 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2000,18 +2000,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2031,18 +2031,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2062,18 +2062,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2124,18 +2124,18 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2155,18 +2155,18 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2186,18 +2186,18 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2217,18 +2217,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2248,18 +2248,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="F59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2269,26 +2269,522 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>109</v>
+      </c>
+      <c r="F60" t="n">
+        <v>11</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>26</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>38</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>32</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>23</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>27</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>27</v>
+      </c>
+      <c r="F68" t="n">
+        <v>11</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>11</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>12</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>10:00-11:00</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="E75" t="n">
         <v>10</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F75" t="n">
         <v>10</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +574,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>136.5</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>96.2</v>
+        <v>119.6</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -636,14 +636,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,18 +667,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>96.2</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,18 +698,18 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,18 +729,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>87</v>
+        <v>118.3</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,18 +760,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>178.1</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -822,14 +822,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,18 +853,18 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -884,18 +884,18 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,18 +915,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -950,14 +950,14 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -981,14 +981,14 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1012,14 +1012,14 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1039,18 +1039,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1070,18 +1070,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1101,18 +1101,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,18 +1132,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,18 +1163,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,18 +1194,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1463,24 +1463,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1525,24 +1525,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1556,28 +1556,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E37" t="n">
+        <v>11</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="F37" t="n">
-        <v>8</v>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1587,28 +1587,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1618,28 +1618,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1649,28 +1649,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1680,28 +1680,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1711,28 +1711,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1742,28 +1742,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1773,28 +1773,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1818,14 +1818,14 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>8</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1835,28 +1835,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1866,28 +1866,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1897,28 +1897,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1928,28 +1928,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1969,18 +1969,18 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2000,18 +2000,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2031,18 +2031,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2062,18 +2062,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2159,14 +2159,14 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2190,14 +2190,14 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F57" t="n">
         <v>10</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2217,18 +2217,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2248,18 +2248,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E59" t="n">
+        <v>24</v>
+      </c>
+      <c r="F59" t="n">
         <v>12</v>
       </c>
-      <c r="F59" t="n">
-        <v>9</v>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2269,26 +2269,1018 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>13</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-35</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>23</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>53</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>63</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>103</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>104</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>109</v>
+      </c>
+      <c r="F71" t="n">
+        <v>11</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>107</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>26</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>38</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>32</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>25</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>23</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>27</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>27</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>21</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>6</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>12</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>10:00-11:00</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="E90" t="n">
         <v>10</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F90" t="n">
         <v>10</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>10</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>12</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,7 +626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,14 +636,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100.1</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96.2</v>
+        <v>92.3</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,14 +698,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>107.9</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,14 +729,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>118.3</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,14 +760,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>178.1</v>
+        <v>100.1</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,14 +795,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -826,14 +826,14 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>86</v>
+        <v>96.2</v>
       </c>
       <c r="F13" t="n">
         <v>9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -857,14 +857,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -888,14 +888,14 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>82</v>
+        <v>118.3</v>
       </c>
       <c r="F15" t="n">
         <v>11</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -919,14 +919,14 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>84</v>
+        <v>178.1</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -946,18 +946,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>101.4</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>69</v>
+        <v>100.1</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,18 +1008,18 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>58</v>
+        <v>179.4</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1039,18 +1039,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>59</v>
+        <v>131.3</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1070,18 +1070,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>54</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1105,14 +1105,14 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1136,14 +1136,14 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F23" t="n">
         <v>9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1167,14 +1167,14 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1198,14 +1198,14 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="F25" t="n">
         <v>11</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1229,14 +1229,14 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1415,14 +1415,14 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" t="n">
         <v>8</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1446,14 +1446,14 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F33" t="n">
         <v>9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F34" t="n">
         <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1508,14 +1508,14 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F35" t="n">
         <v>11</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1539,14 +1539,14 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F36" t="n">
         <v>12</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1566,18 +1566,18 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1597,18 +1597,18 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1628,18 +1628,18 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1659,18 +1659,18 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1690,18 +1690,18 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1721,18 +1721,18 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1752,18 +1752,18 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1783,18 +1783,18 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1814,18 +1814,18 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1845,18 +1845,18 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1876,18 +1876,18 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1907,18 +1907,18 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1938,18 +1938,18 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="F49" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1959,28 +1959,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1990,28 +1990,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2021,28 +2021,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2052,28 +2052,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2083,28 +2083,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2114,28 +2114,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F55" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2145,28 +2145,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2176,28 +2176,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2207,28 +2207,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2238,28 +2238,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>24</v>
       </c>
       <c r="F59" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2269,28 +2269,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2300,28 +2300,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2331,28 +2331,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2362,28 +2362,28 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2393,28 +2393,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F64" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2424,28 +2424,28 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2455,28 +2455,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2486,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2517,28 +2517,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2548,28 +2548,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2579,28 +2579,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2610,28 +2610,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2641,28 +2641,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2672,28 +2672,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2703,28 +2703,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2734,28 +2734,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2765,28 +2765,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2796,28 +2796,28 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2827,28 +2827,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2858,28 +2858,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="F79" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2889,28 +2889,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2920,28 +2920,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2951,28 +2951,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2982,28 +2982,28 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -3013,28 +3013,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -3044,28 +3044,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -3075,28 +3075,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -3106,28 +3106,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -3137,28 +3137,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -3168,28 +3168,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3209,18 +3209,18 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3240,18 +3240,18 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3261,26 +3261,2506 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>13</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>15</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>16</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>31</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>25</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>26</v>
+      </c>
+      <c r="F103" t="n">
+        <v>11</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>24</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>17</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>15</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>17</v>
+      </c>
+      <c r="F107" t="n">
+        <v>15</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>21</v>
+      </c>
+      <c r="F108" t="n">
+        <v>16</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>20</v>
+      </c>
+      <c r="F109" t="n">
+        <v>17</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>16</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>13</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>13</v>
+      </c>
+      <c r="F116" t="n">
+        <v>14</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>15</v>
+      </c>
+      <c r="F118" t="n">
+        <v>16</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>17</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-35</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>23</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>53</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>63</v>
+      </c>
+      <c r="F123" t="n">
+        <v>8</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>103</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>104</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>109</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>107</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>78</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>81</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>97</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>74</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>99</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>10</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>26</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>38</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>32</v>
+      </c>
+      <c r="F136" t="n">
+        <v>11</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>25</v>
+      </c>
+      <c r="F137" t="n">
+        <v>12</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>16</v>
+      </c>
+      <c r="F138" t="n">
+        <v>13</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>18</v>
+      </c>
+      <c r="F139" t="n">
+        <v>14</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>17</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>19</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>18</v>
+      </c>
+      <c r="F142" t="n">
+        <v>17</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>23</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>27</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>27</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>21</v>
+      </c>
+      <c r="F147" t="n">
+        <v>12</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>15</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>23</v>
+      </c>
+      <c r="F149" t="n">
+        <v>14</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>16</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>21</v>
+      </c>
+      <c r="F151" t="n">
+        <v>16</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>18</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>13</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>14</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>15</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>12</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>10</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>10</v>
+      </c>
+      <c r="F166" t="n">
+        <v>11</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
         <is>
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="E167" t="n">
         <v>12</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F167" t="n">
         <v>12</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>11</v>
+      </c>
+      <c r="F168" t="n">
+        <v>13</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>11</v>
+      </c>
+      <c r="F169" t="n">
+        <v>14</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>10</v>
+      </c>
+      <c r="F170" t="n">
+        <v>15</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>12</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>14</v>
+      </c>
+      <c r="F172" t="n">
+        <v>17</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,14 +636,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>145.6</v>
+        <v>118.3</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>189.8</v>
+        <v>123.5</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,14 +698,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>189.8</v>
+        <v>126.1</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,18 +729,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,18 +760,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,18 +791,18 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>105</v>
+        <v>145.6</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -822,18 +822,18 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102</v>
+        <v>189.8</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,18 +853,18 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>189.8</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -884,18 +884,18 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>58</v>
+        <v>175.5</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,18 +915,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>115.7</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -946,18 +946,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>161.2</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>65</v>
+        <v>132.6</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,18 +1008,18 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>139</v>
+        <v>171.6</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1039,18 +1039,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1070,18 +1070,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1101,18 +1101,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,18 +1132,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,18 +1163,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,18 +1194,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1473,18 +1473,18 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1504,18 +1504,18 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1535,18 +1535,18 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1566,18 +1566,18 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1601,14 +1601,14 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F38" t="n">
         <v>8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1632,14 +1632,14 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="F39" t="n">
         <v>9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1663,14 +1663,14 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="F40" t="n">
         <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1694,14 +1694,14 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="F41" t="n">
         <v>11</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1711,28 +1711,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1742,28 +1742,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1773,28 +1773,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1804,28 +1804,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1835,28 +1835,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1866,28 +1866,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1897,28 +1897,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1928,28 +1928,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1959,28 +1959,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1990,28 +1990,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2021,28 +2021,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2052,28 +2052,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2083,28 +2083,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2114,28 +2114,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2159,14 +2159,14 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F56" t="n">
         <v>8</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2176,28 +2176,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2207,28 +2207,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2238,28 +2238,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2269,28 +2269,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2300,28 +2300,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2331,28 +2331,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F62" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2362,28 +2362,28 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2393,28 +2393,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2424,28 +2424,28 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="F65" t="n">
-        <v>8</v>
-      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2455,28 +2455,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2486,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2517,28 +2517,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2548,28 +2548,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2579,28 +2579,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2610,28 +2610,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2641,28 +2641,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2672,12 +2672,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2686,14 +2686,14 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>8</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2703,12 +2703,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2717,14 +2717,14 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2748,14 +2748,14 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>10</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2765,12 +2765,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2779,12 +2779,2492 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>11</v>
       </c>
       <c r="G76" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>14</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>15</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>16</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>12</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>14</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>16</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>27</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>27</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>28</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>24</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>23</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>19</v>
+      </c>
+      <c r="F97" t="n">
+        <v>14</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>22</v>
+      </c>
+      <c r="F98" t="n">
+        <v>15</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>23</v>
+      </c>
+      <c r="F99" t="n">
+        <v>16</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>17</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>11</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>17</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>17</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>15</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>14</v>
+      </c>
+      <c r="F108" t="n">
+        <v>16</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-35</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>35</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>66</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>11</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>64</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>108</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>136</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>132</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>107</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>91</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>107</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>99</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>113</v>
+      </c>
+      <c r="F120" t="n">
+        <v>16</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>11</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>27</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>32</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>26</v>
+      </c>
+      <c r="F124" t="n">
+        <v>11</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>24</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>19</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>20</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>15</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>17</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>28</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>30</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>28</v>
+      </c>
+      <c r="F133" t="n">
+        <v>11</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>25</v>
+      </c>
+      <c r="F134" t="n">
+        <v>12</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>22</v>
+      </c>
+      <c r="F135" t="n">
+        <v>13</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>20</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>23</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>26</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>12</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>13</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>15</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>16</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>21</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>15</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>11</v>
+      </c>
+      <c r="F153" t="n">
+        <v>13</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>16</v>
+      </c>
+      <c r="F154" t="n">
+        <v>14</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>19</v>
+      </c>
+      <c r="F155" t="n">
+        <v>15</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>19</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>111.8</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,14 +636,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>119.6</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101.4</v>
+        <v>63.7</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,14 +698,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,18 +729,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>57.2</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,18 +760,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>66.3</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,18 +791,18 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>83</v>
+        <v>58.5</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -822,18 +822,18 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,18 +853,18 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>119.6</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -884,18 +884,18 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53</v>
+        <v>101.4</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,18 +915,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -946,18 +946,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>123.5</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>56</v>
+        <v>79.3</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,18 +1008,18 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>120.9</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1039,18 +1039,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1070,18 +1070,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1101,18 +1101,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E22" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F22" t="n">
         <v>17</v>
       </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,18 +1132,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>63</v>
+        <v>71.5</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,18 +1163,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,18 +1194,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1473,18 +1473,18 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1504,18 +1504,18 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1535,18 +1535,18 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1566,18 +1566,18 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1597,18 +1597,18 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1628,18 +1628,18 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1659,18 +1659,18 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1690,18 +1690,18 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1711,28 +1711,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1742,28 +1742,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1773,28 +1773,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1804,28 +1804,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1849,14 +1849,14 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F46" t="n">
         <v>8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1880,14 +1880,14 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F47" t="n">
         <v>9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1897,12 +1897,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1911,14 +1911,14 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F48" t="n">
         <v>10</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1928,12 +1928,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1942,14 +1942,14 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F49" t="n">
         <v>11</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1959,28 +1959,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1990,28 +1990,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2021,28 +2021,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2052,28 +2052,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2083,28 +2083,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2114,28 +2114,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2145,28 +2145,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2190,14 +2190,14 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F57" t="n">
         <v>8</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2207,12 +2207,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2221,14 +2221,14 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F58" t="n">
         <v>9</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2238,12 +2238,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2252,14 +2252,14 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F59" t="n">
         <v>10</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2283,14 +2283,14 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
         <v>11</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2300,28 +2300,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2331,28 +2331,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2362,28 +2362,28 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2393,28 +2393,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2424,28 +2424,28 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2455,28 +2455,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F66" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2486,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2517,28 +2517,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2548,28 +2548,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2579,28 +2579,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2610,28 +2610,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2641,28 +2641,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2672,28 +2672,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F73" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2703,28 +2703,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F74" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2734,28 +2734,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2765,26 +2765,3498 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>COV-MSK-RES</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>26</v>
+      </c>
+      <c r="F76" t="n">
+        <v>16</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>COV-MSK-RES</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>24</v>
+      </c>
+      <c r="F77" t="n">
+        <v>17</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>COV-MSK-RES</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F78" t="n">
+        <v>18</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>COV-NOTTE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>00.00-01.00</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>COV-NOTTE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>01.00-02.00</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>6</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>COV-NOTTE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>02.00-03.00</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>COV-NOTTE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>03.00-04.00</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>COV-NOTTE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>04.00-05.00</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>COV-NOTTE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>05.00-06.00</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>COV-NOTTE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>06.00-07.00</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>11</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>COV-NOTTE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>07.00-08.00</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>61</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>9</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>11</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>13</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>17</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>COV-VIP-RES</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>18</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>14</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>15</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>16</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>17</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>17</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>14</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>15</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>11</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>14</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>16</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>18</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>11</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>11</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>10</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>13</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>10</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-35</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>21</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>43</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>29</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>45</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>56</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>68</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>66</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>52</v>
+      </c>
+      <c r="F139" t="n">
+        <v>13</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>53</v>
+      </c>
+      <c r="F140" t="n">
+        <v>14</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>44</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>43</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>41</v>
+      </c>
+      <c r="F143" t="n">
+        <v>17</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>40</v>
+      </c>
+      <c r="F144" t="n">
+        <v>18</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>26</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>35</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>30</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>25</v>
+      </c>
+      <c r="F148" t="n">
+        <v>11</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>30</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>20</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>19</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>21</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>18</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>15</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>12</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>25</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>20</v>
+      </c>
+      <c r="F159" t="n">
+        <v>11</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>18</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>11</v>
+      </c>
+      <c r="F161" t="n">
+        <v>13</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>14</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>15</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>16</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>18</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>8</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>10</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>14</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>15</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>16</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>17</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>4</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>9</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
         <is>
           <t>11:00-12:00</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="E181" t="n">
         <v>8</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F181" t="n">
         <v>11</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>9</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>14</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>6</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>16</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>17</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>18</v>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +574,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>215.8</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>158.6</v>
+        <v>180.7</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -636,14 +636,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206.7</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,18 +667,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>61</v>
+        <v>158.6</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,18 +698,18 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>206.7</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,18 +729,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>110</v>
+        <v>206.7</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,18 +760,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>191.1</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -822,14 +822,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,18 +853,18 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -884,18 +884,18 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,18 +915,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -950,14 +950,14 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -981,14 +981,14 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1012,14 +1012,14 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1039,18 +1039,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1070,18 +1070,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1101,18 +1101,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,18 +1132,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,18 +1163,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,18 +1194,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1463,24 +1463,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1525,24 +1525,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1556,28 +1556,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="F37" t="n">
-        <v>8</v>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1587,28 +1587,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1618,28 +1618,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1649,28 +1649,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1680,28 +1680,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1711,28 +1711,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1742,28 +1742,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1773,28 +1773,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1818,14 +1818,14 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>8</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1835,28 +1835,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1866,28 +1866,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1897,28 +1897,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1928,28 +1928,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1969,18 +1969,18 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2000,18 +2000,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2031,18 +2031,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2062,18 +2062,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2159,14 +2159,14 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2190,14 +2190,14 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F57" t="n">
         <v>10</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2217,18 +2217,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2248,18 +2248,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F59" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2269,26 +2269,1018 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>16</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-35</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>38</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>72</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>62</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>104</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>131</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>127</v>
+      </c>
+      <c r="F71" t="n">
+        <v>11</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>103</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>26</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>31</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>25</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>23</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>24</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>26</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>24</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>21</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>10:00-11:00</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="E90" t="n">
         <v>16</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F90" t="n">
         <v>10</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>21</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>15</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144.3</v>
+        <v>157.3</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>197.6</v>
+        <v>174.2</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COV-MSK-GESTIONE-COMM-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +574,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>215.8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COV-MSK-GESTIONE-COMM-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>180.7</v>
+        <v>130</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -636,14 +636,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>140.4</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,18 +667,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>158.6</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,18 +698,18 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>206.7</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,18 +729,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>206.7</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,18 +760,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>191.1</v>
+        <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -822,14 +822,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,18 +853,18 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -884,18 +884,18 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,18 +915,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -950,14 +950,14 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -981,14 +981,14 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1012,14 +1012,14 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1039,18 +1039,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1070,18 +1070,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1101,18 +1101,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,18 +1132,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,18 +1163,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,18 +1194,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -1463,24 +1463,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1525,24 +1525,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1556,28 +1556,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1587,28 +1587,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1618,28 +1618,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1649,28 +1649,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1680,28 +1680,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1711,28 +1711,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -1742,28 +1742,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -1773,28 +1773,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1818,14 +1818,14 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>8</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -1835,28 +1835,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -1866,28 +1866,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -1897,28 +1897,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -1928,28 +1928,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1969,18 +1969,18 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2000,18 +2000,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2031,18 +2031,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2062,18 +2062,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2159,14 +2159,14 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2190,14 +2190,14 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>10</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2217,18 +2217,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2248,18 +2248,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F59" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2279,1008 +2279,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" t="inlineStr">
-        <is>
-          <t>IPR</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>7</v>
-      </c>
-      <c r="F61" t="n">
-        <v>9</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>IPR</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>16</v>
-      </c>
-      <c r="F62" t="n">
-        <v>10</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>IPR</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>5</v>
-      </c>
-      <c r="F63" t="n">
-        <v>11</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>IPR</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>16</v>
-      </c>
-      <c r="F64" t="n">
-        <v>12</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>IPR</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>COV-MIGRAZIONE-35</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>38</v>
-      </c>
-      <c r="F65" t="n">
-        <v>8</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>MIG</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>COV-MIGRAZIONE-37</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>72</v>
-      </c>
-      <c r="F66" t="n">
-        <v>10</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>MIG</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>COV-MIGRAZIONE-37</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>10</v>
-      </c>
-      <c r="F67" t="n">
-        <v>8</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>MIG</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>COV-MOBILE MNP</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>62</v>
-      </c>
-      <c r="F68" t="n">
-        <v>8</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>COV-MOBILE MNP</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>104</v>
-      </c>
-      <c r="F69" t="n">
-        <v>9</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>COV-MOBILE MNP</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>131</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>COV-MOBILE MNP</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>127</v>
-      </c>
-      <c r="F71" t="n">
-        <v>11</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>COV-MOBILE MNP</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>103</v>
-      </c>
-      <c r="F72" t="n">
-        <v>12</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>10</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>26</v>
-      </c>
-      <c r="F74" t="n">
-        <v>9</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>31</v>
-      </c>
-      <c r="F75" t="n">
-        <v>10</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>25</v>
-      </c>
-      <c r="F76" t="n">
-        <v>11</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>23</v>
-      </c>
-      <c r="F77" t="n">
-        <v>12</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>8</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>24</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>26</v>
-      </c>
-      <c r="F80" t="n">
-        <v>10</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>24</v>
-      </c>
-      <c r="F81" t="n">
-        <v>11</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>21</v>
-      </c>
-      <c r="F82" t="n">
-        <v>12</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>8</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>3</v>
-      </c>
-      <c r="F84" t="n">
-        <v>9</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>3</v>
-      </c>
-      <c r="F85" t="n">
-        <v>10</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>3</v>
-      </c>
-      <c r="F86" t="n">
-        <v>11</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>2</v>
-      </c>
-      <c r="F87" t="n">
-        <v>12</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>8</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>15</v>
-      </c>
-      <c r="F89" t="n">
-        <v>9</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>16</v>
-      </c>
-      <c r="F90" t="n">
-        <v>10</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>21</v>
-      </c>
-      <c r="F91" t="n">
-        <v>11</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>15</v>
-      </c>
-      <c r="F92" t="n">
-        <v>12</v>
-      </c>
-      <c r="G92" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +564,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,14 +574,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>175.5</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>153.4</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,14 +636,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>140.4</v>
+        <v>128.7</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,14 +671,14 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,14 +702,14 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F9" t="n">
         <v>9</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -733,14 +733,14 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>140.4</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,18 +760,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>158.6</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,18 +791,18 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>74</v>
+        <v>240.5</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -822,18 +822,18 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>63</v>
+        <v>136.5</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -857,14 +857,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -888,14 +888,14 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="F15" t="n">
         <v>9</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -919,14 +919,14 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -946,18 +946,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,18 +1008,18 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,14 +1043,14 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
         <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1074,14 +1074,14 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1105,14 +1105,14 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,18 +1132,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,18 +1163,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,18 +1194,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1463,28 +1463,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1494,28 +1494,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1525,28 +1525,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1556,28 +1556,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1587,28 +1587,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1618,28 +1618,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1649,28 +1649,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1680,28 +1680,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1711,28 +1711,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1742,28 +1742,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1773,28 +1773,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1804,28 +1804,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1835,28 +1835,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1866,28 +1866,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1897,28 +1897,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1928,28 +1928,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1959,28 +1959,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -1990,28 +1990,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2066,14 +2066,14 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>9</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2097,14 +2097,14 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2114,28 +2114,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2145,28 +2145,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2176,28 +2176,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2221,14 +2221,14 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>8</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2252,14 +2252,14 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2283,12 +2283,1500 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>10</v>
       </c>
       <c r="G60" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>COV-INFOLINE-PRE-RES</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>13</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>28</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>22</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>23</v>
+      </c>
+      <c r="F67" t="n">
+        <v>11</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>22</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-RES</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>15</v>
+      </c>
+      <c r="F69" t="n">
+        <v>13</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>14</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>11</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-35</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>29</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>68</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>69</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>112</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>112</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>119</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>117</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>85</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>26</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>37</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>31</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>24</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>16</v>
+      </c>
+      <c r="F90" t="n">
+        <v>13</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>22</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>25</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>26</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>14</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>12</v>
+      </c>
+      <c r="F104" t="n">
+        <v>9</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>10</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>11</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>12</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>11</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>118.3</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,14 +698,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>130</v>
+        <v>139.1</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,14 +729,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>140.4</v>
+        <v>133.9</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>158.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -791,14 +791,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>240.5</v>
+        <v>130</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -822,14 +822,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>136.5</v>
+        <v>140.4</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,18 +853,18 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>158.6</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -884,18 +884,18 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>91</v>
+        <v>240.5</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,18 +915,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>92</v>
+        <v>136.5</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -946,18 +946,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>87</v>
+        <v>133.9</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>89</v>
+        <v>241.8</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,18 +1008,18 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>74</v>
+        <v>176.8</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
         <v>8</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F23" t="n">
         <v>11</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="F24" t="n">
         <v>12</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F25" t="n">
         <v>13</v>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1318,18 +1318,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1473,18 +1473,18 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1504,18 +1504,18 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1535,18 +1535,18 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1566,18 +1566,18 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1601,14 +1601,14 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F38" t="n">
         <v>8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1632,14 +1632,14 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F39" t="n">
         <v>9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1663,14 +1663,14 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="F40" t="n">
         <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1694,14 +1694,14 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="F41" t="n">
         <v>11</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1725,14 +1725,14 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F42" t="n">
         <v>12</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1756,14 +1756,14 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F43" t="n">
         <v>13</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1783,18 +1783,18 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1814,18 +1814,18 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1845,18 +1845,18 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1876,18 +1876,18 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1907,18 +1907,18 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1938,18 +1938,18 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1969,18 +1969,18 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2000,18 +2000,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="F51" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2031,18 +2031,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2062,18 +2062,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2124,18 +2124,18 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2155,18 +2155,18 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2186,18 +2186,18 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F57" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2207,24 +2207,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2238,24 +2238,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F59" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2269,24 +2269,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2300,24 +2300,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2331,24 +2331,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F62" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2362,24 +2362,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2393,28 +2393,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2424,28 +2424,28 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2455,28 +2455,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2486,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2517,28 +2517,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2548,28 +2548,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2579,28 +2579,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2610,28 +2610,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2641,28 +2641,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2672,28 +2672,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2703,28 +2703,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2734,28 +2734,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2765,28 +2765,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2796,28 +2796,28 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2827,28 +2827,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2858,28 +2858,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2889,28 +2889,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2920,28 +2920,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2961,18 +2961,18 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2992,18 +2992,18 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3023,18 +3023,18 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3054,18 +3054,18 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3085,18 +3085,18 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3116,18 +3116,18 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3147,18 +3147,18 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3178,18 +3178,18 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3209,18 +3209,18 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
         <v>16</v>
       </c>
-      <c r="F90" t="n">
-        <v>13</v>
-      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3275,14 +3275,14 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3306,14 +3306,14 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F93" t="n">
         <v>10</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3337,14 +3337,14 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F94" t="n">
         <v>11</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3368,14 +3368,14 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F95" t="n">
         <v>12</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3399,14 +3399,14 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F96" t="n">
         <v>13</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3426,18 +3426,18 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3457,18 +3457,18 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F98" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3488,18 +3488,18 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3519,18 +3519,18 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3550,18 +3550,18 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3581,18 +3581,18 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F102" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3612,18 +3612,18 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F103" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3643,18 +3643,18 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E104" t="n">
+        <v>11</v>
+      </c>
+      <c r="F104" t="n">
         <v>12</v>
       </c>
-      <c r="F104" t="n">
-        <v>9</v>
-      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3674,18 +3674,18 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3705,18 +3705,18 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3736,18 +3736,18 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3757,26 +3757,1514 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>13</v>
+      </c>
+      <c r="F108" t="n">
+        <v>16</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>IPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-35</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>29</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>68</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>COV-MIGRAZIONE-37</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>MIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>69</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>112</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>112</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>119</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>117</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>85</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>88</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>105</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>COV-MOBILE MNP</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>80</v>
+      </c>
+      <c r="F120" t="n">
+        <v>16</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>10</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>26</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>37</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>31</v>
+      </c>
+      <c r="F124" t="n">
+        <v>11</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>24</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>16</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>17</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>16</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>19</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>MOB PRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>22</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>25</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>26</v>
+      </c>
+      <c r="F133" t="n">
+        <v>11</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>20</v>
+      </c>
+      <c r="F134" t="n">
+        <v>12</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>14</v>
+      </c>
+      <c r="F135" t="n">
+        <v>13</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>22</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>15</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>20</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>12</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>13</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>12</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>10</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>10</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>12</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
         <is>
           <t>13:00-14:00</t>
         </is>
       </c>
-      <c r="E108" t="n">
+      <c r="E153" t="n">
         <v>11</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F153" t="n">
         <v>13</v>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>14</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>10</v>
+      </c>
+      <c r="F155" t="n">
+        <v>15</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>12</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>25/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>157.3</v>
+        <v>96</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>174.2</v>
+        <v>134</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>175.5</v>
+        <v>154</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>153.4</v>
+        <v>170</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>128.7</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>118.3</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-MSK-GESTIONE-COMM-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,14 +698,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>139.1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-MSK-GESTIONE-COMM-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,14 +729,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>133.9</v>
+        <v>162</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -791,14 +791,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -822,14 +822,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>140.4</v>
+        <v>166</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>158.6</v>
+        <v>106</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -884,14 +884,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>240.5</v>
+        <v>164</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,18 +915,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>136.5</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -946,18 +946,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>133.9</v>
+        <v>49</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>241.8</v>
+        <v>83</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,18 +1008,18 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>176.8</v>
+        <v>95</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1039,14 +1039,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1070,14 +1070,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1101,14 +1101,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,14 +1132,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,14 +1163,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,14 +1194,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1318,14 +1318,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1473,18 +1473,18 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1504,18 +1504,18 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1535,18 +1535,18 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1566,18 +1566,18 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1628,14 +1628,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1690,14 +1690,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1752,14 +1752,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="F43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1783,18 +1783,18 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1814,18 +1814,18 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="F45" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1845,18 +1845,18 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1876,18 +1876,18 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1907,18 +1907,18 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F48" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1938,18 +1938,18 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1969,18 +1969,18 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2000,18 +2000,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>00.00-01.00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2031,18 +2031,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>01.00-02.00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2062,18 +2062,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>02.00-03.00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>03.00-04.00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2124,18 +2124,18 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>04.00-05.00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2155,18 +2155,18 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>05.00-06.00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2186,18 +2186,18 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>06.00-07.00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-NOTTE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2217,18 +2217,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>07.00-08.00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>NOT</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2248,18 +2248,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2279,18 +2279,18 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2310,18 +2310,18 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2341,18 +2341,18 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2372,18 +2372,18 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2403,18 +2403,18 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2434,18 +2434,18 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2455,28 +2455,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2486,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2517,28 +2517,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2548,28 +2548,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2579,28 +2579,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2610,28 +2610,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2641,28 +2641,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2672,12 +2672,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2703,12 +2703,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2717,14 +2717,14 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2748,14 +2748,14 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F75" t="n">
         <v>10</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2765,12 +2765,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2779,14 +2779,14 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F76" t="n">
         <v>11</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2810,14 +2810,14 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F77" t="n">
         <v>12</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2841,14 +2841,14 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
         <v>13</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2872,14 +2872,14 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>14</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2889,28 +2889,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2920,28 +2920,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2961,18 +2961,18 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2992,18 +2992,18 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3023,18 +3023,18 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3054,18 +3054,18 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3085,18 +3085,18 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3116,18 +3116,18 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F87" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3147,18 +3147,18 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F88" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3178,18 +3178,18 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3209,18 +3209,18 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3240,18 +3240,18 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3271,18 +3271,18 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3302,18 +3302,18 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3333,18 +3333,18 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3364,18 +3364,18 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3395,18 +3395,18 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3426,18 +3426,18 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F97" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3457,18 +3457,18 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F98" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3488,18 +3488,18 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F99" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3519,18 +3519,18 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3550,18 +3550,18 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F101" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3581,18 +3581,18 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3612,18 +3612,18 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F103" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3643,18 +3643,18 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3674,18 +3674,18 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3705,18 +3705,18 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F106" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3736,18 +3736,18 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F107" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3767,18 +3767,18 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F108" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3798,18 +3798,18 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F109" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3829,18 +3829,18 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3864,14 +3864,14 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>8</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3891,18 +3891,18 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3922,18 +3922,18 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3953,18 +3953,18 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3984,18 +3984,18 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4015,18 +4015,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4046,18 +4046,18 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4077,18 +4077,18 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F118" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4108,18 +4108,18 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="F119" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4139,18 +4139,18 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F120" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4170,18 +4170,18 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F121" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4201,18 +4201,18 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4232,18 +4232,18 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>WLC</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4263,1008 +4263,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F124" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G124" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>24</v>
-      </c>
-      <c r="F125" t="n">
-        <v>12</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>16</v>
-      </c>
-      <c r="F126" t="n">
-        <v>13</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>14:00-15:00</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>17</v>
-      </c>
-      <c r="F127" t="n">
-        <v>14</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>15:00-16:00</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>16</v>
-      </c>
-      <c r="F128" t="n">
-        <v>15</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>16:00-17:00</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>19</v>
-      </c>
-      <c r="F129" t="n">
-        <v>16</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>MOB PRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>8</v>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>22</v>
-      </c>
-      <c r="F131" t="n">
-        <v>9</v>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>25</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>26</v>
-      </c>
-      <c r="F133" t="n">
-        <v>11</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>20</v>
-      </c>
-      <c r="F134" t="n">
-        <v>12</v>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>14</v>
-      </c>
-      <c r="F135" t="n">
-        <v>13</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>14:00-15:00</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>22</v>
-      </c>
-      <c r="F136" t="n">
-        <v>14</v>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>15:00-16:00</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>15</v>
-      </c>
-      <c r="F137" t="n">
-        <v>15</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>COV-TESTING-RES</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>16:00-17:00</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>20</v>
-      </c>
-      <c r="F138" t="n">
-        <v>16</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>8</v>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>3</v>
-      </c>
-      <c r="F140" t="n">
-        <v>9</v>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>10</v>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>11</v>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>12</v>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>2</v>
-      </c>
-      <c r="F144" t="n">
-        <v>13</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>14:00-15:00</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>2</v>
-      </c>
-      <c r="F145" t="n">
-        <v>14</v>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>15:00-16:00</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>15</v>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-CMN-RES</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>16:00-17:00</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>3</v>
-      </c>
-      <c r="F147" t="n">
-        <v>16</v>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>6</v>
-      </c>
-      <c r="F148" t="n">
-        <v>8</v>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>12</v>
-      </c>
-      <c r="F149" t="n">
-        <v>9</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>10</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10</v>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>10</v>
-      </c>
-      <c r="F151" t="n">
-        <v>11</v>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>12</v>
-      </c>
-      <c r="F152" t="n">
-        <v>12</v>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>11</v>
-      </c>
-      <c r="F153" t="n">
-        <v>13</v>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>14:00-15:00</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>11</v>
-      </c>
-      <c r="F154" t="n">
-        <v>14</v>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>15:00-16:00</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>10</v>
-      </c>
-      <c r="F155" t="n">
-        <v>15</v>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>WLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>16:00-17:00</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>12</v>
-      </c>
-      <c r="F156" t="n">
-        <v>16</v>
-      </c>
-      <c r="G156" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>25/03/2023</t>
+          <t>07/04/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,14 +698,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -729,11 +729,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -791,11 +791,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -822,11 +822,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -853,11 +853,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -884,11 +884,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,18 +915,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -946,18 +946,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -977,14 +977,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1008,14 +1008,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1039,14 +1039,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1070,14 +1070,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1101,14 +1101,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1132,14 +1132,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,14 +1163,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,14 +1194,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1256,14 +1256,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1287,14 +1287,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1318,14 +1318,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>47</v>
       </c>
       <c r="F29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1349,18 +1349,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1380,18 +1380,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1442,18 +1442,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1473,14 +1473,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1504,14 +1504,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F35" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1535,14 +1535,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1566,14 +1566,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1628,14 +1628,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F40" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1690,14 +1690,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1721,14 +1721,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>19</v>
       </c>
       <c r="F42" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1752,14 +1752,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F43" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1783,18 +1783,18 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1814,18 +1814,18 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F45" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1845,18 +1845,18 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1876,18 +1876,18 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1907,18 +1907,18 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1938,18 +1938,18 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>26</v>
       </c>
       <c r="F49" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1969,14 +1969,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>21</v>
       </c>
       <c r="F50" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2000,18 +2000,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2031,18 +2031,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2062,18 +2062,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2124,18 +2124,18 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2155,18 +2155,18 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2186,18 +2186,18 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2217,18 +2217,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2248,14 +2248,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2279,14 +2279,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2310,14 +2310,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2341,14 +2341,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2372,14 +2372,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2403,14 +2403,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2434,14 +2434,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2682,18 +2682,18 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2713,11 +2713,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
@@ -2744,11 +2744,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F75" t="n">
         <v>10</v>
@@ -2775,11 +2775,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F76" t="n">
         <v>11</v>
@@ -2806,11 +2806,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F77" t="n">
         <v>12</v>
@@ -2837,11 +2837,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F78" t="n">
         <v>13</v>
@@ -2868,11 +2868,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F79" t="n">
         <v>14</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2899,14 +2899,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2930,14 +2930,14 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2961,14 +2961,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2992,14 +2992,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3023,14 +3023,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3054,14 +3054,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3085,14 +3085,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F86" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3116,18 +3116,18 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3147,18 +3147,18 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3178,18 +3178,18 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E89" t="n">
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3213,14 +3213,14 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3244,14 +3244,14 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3275,14 +3275,14 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3306,14 +3306,14 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3337,14 +3337,14 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3368,14 +3368,14 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3399,14 +3399,14 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3426,18 +3426,18 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3457,18 +3457,18 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3488,18 +3488,18 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>10</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3519,18 +3519,18 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
         <v>11</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3550,18 +3550,18 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
         <v>12</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3581,18 +3581,18 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F102" t="n">
         <v>13</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3612,18 +3612,18 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
         <v>14</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3643,18 +3643,18 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3674,18 +3674,18 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3705,18 +3705,18 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3736,18 +3736,18 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="F107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3767,18 +3767,18 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3798,18 +3798,18 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="F109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3829,18 +3829,18 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3860,18 +3860,18 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F111" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3891,18 +3891,18 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F112" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3922,18 +3922,18 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3953,18 +3953,18 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3984,18 +3984,18 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F115" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4015,18 +4015,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4046,18 +4046,18 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F117" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4077,18 +4077,18 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F118" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4108,18 +4108,18 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F119" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4139,18 +4139,18 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4170,18 +4170,18 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F121" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4201,18 +4201,18 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
         <v>9</v>
       </c>
-      <c r="F122" t="n">
-        <v>12</v>
-      </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4232,18 +4232,18 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F123" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4253,26 +4253,677 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>18</v>
+      </c>
+      <c r="F124" t="n">
+        <v>11</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>22</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>18</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>17</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>25</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>23</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>12</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>13</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>12</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>11</v>
+      </c>
+      <c r="F140" t="n">
+        <v>11</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>10</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>13</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>14</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
         <is>
           <t>14:00-15:00</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>14</v>
-      </c>
-      <c r="G124" t="inlineStr">
+      <c r="E144" t="n">
+        <v>11</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>11</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>

--- a/service/currentforecast.xlsx
+++ b/service/currentforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,7 +719,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COV-GESTIONE-COMM-CMN-RES</t>
+          <t>COV-MSK-GESTIONE-COMM-RES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,14 +729,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -791,14 +791,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -822,14 +822,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -884,14 +884,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -915,14 +915,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -946,14 +946,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>135</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COV-MSK-HELPLINE-RES</t>
+          <t>COV-GESTIONE-COMM-CMN-RES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,18 +1008,18 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>AMM</t>
         </is>
       </c>
     </row>
@@ -1039,14 +1039,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1070,14 +1070,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1101,14 +1101,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1132,14 +1132,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1163,14 +1163,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COV-HELPLINE-CMN-RES</t>
+          <t>COV-MSK-HELPLINE-RES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1318,14 +1318,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1349,14 +1349,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1380,14 +1380,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1411,14 +1411,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1442,14 +1442,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F33" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1473,18 +1473,18 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1504,18 +1504,18 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1535,18 +1535,18 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COV-MSK-MOBILE-RES</t>
+          <t>COV-HELPLINE-CMN-RES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1566,18 +1566,18 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>TEC</t>
         </is>
       </c>
     </row>
@@ -1597,14 +1597,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="F38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1628,14 +1628,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1690,14 +1690,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="F41" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F42" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1752,14 +1752,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1783,14 +1783,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1814,14 +1814,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COV-MOBILE-CMN-RES</t>
+          <t>COV-MSK-MOBILE-RES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1845,14 +1845,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="F46" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1876,14 +1876,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F47" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1938,14 +1938,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F49" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1969,18 +1969,18 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2000,18 +2000,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2031,18 +2031,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2062,18 +2062,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F54" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COV-MSK-RES</t>
+          <t>COV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2124,18 +2124,18 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F55" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB</t>
         </is>
       </c>
     </row>
@@ -2155,14 +2155,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F56" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2186,14 +2186,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F57" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2217,18 +2217,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F58" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2248,18 +2248,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2279,18 +2279,18 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2310,18 +2310,18 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F61" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2341,18 +2341,18 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2372,18 +2372,18 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F63" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-MSK-RES</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2403,18 +2403,18 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2434,14 +2434,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2455,28 +2455,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2486,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2517,28 +2517,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2548,28 +2548,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2579,28 +2579,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2610,28 +2610,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2641,28 +2641,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2672,28 +2672,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2748,14 +2748,14 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>10</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2779,14 +2779,14 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>11</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2810,14 +2810,14 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>12</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2841,14 +2841,14 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>13</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2872,14 +2872,14 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>14</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2903,14 +2903,14 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>15</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2934,14 +2934,14 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>16</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2961,18 +2961,18 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2992,14 +2992,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3023,14 +3023,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3054,14 +3054,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3147,14 +3147,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>14</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3178,14 +3178,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F89" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3209,18 +3209,18 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F90" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3240,18 +3240,18 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3271,18 +3271,18 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3302,18 +3302,18 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3333,18 +3333,18 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3364,18 +3364,18 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3395,18 +3395,18 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-35</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3426,18 +3426,18 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3457,18 +3457,18 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F98" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3488,18 +3488,18 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3519,18 +3519,18 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3550,14 +3550,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F101" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3581,14 +3581,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F102" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3612,14 +3612,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F103" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3643,14 +3643,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="F104" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3674,14 +3674,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F105" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3705,18 +3705,18 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F106" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3736,18 +3736,18 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3767,18 +3767,18 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3798,18 +3798,18 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="F109" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3829,18 +3829,18 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3860,18 +3860,18 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="F111" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3891,18 +3891,18 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3922,18 +3922,18 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3953,18 +3953,18 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F114" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3984,18 +3984,18 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4015,18 +4015,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4046,18 +4046,18 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4077,18 +4077,18 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4108,14 +4108,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F119" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4139,14 +4139,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F120" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4170,14 +4170,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="F121" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4201,18 +4201,18 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F122" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4232,18 +4232,18 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4263,18 +4263,18 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F124" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4294,18 +4294,18 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F125" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4325,18 +4325,18 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F126" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4356,18 +4356,18 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E127" t="n">
+        <v>94</v>
+      </c>
+      <c r="F127" t="n">
         <v>17</v>
       </c>
-      <c r="F127" t="n">
-        <v>14</v>
-      </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4387,18 +4387,18 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4418,18 +4418,18 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F129" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4449,18 +4449,18 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F130" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4480,18 +4480,18 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4511,18 +4511,18 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F132" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4542,18 +4542,18 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F133" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4573,18 +4573,18 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4604,18 +4604,18 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F135" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4635,18 +4635,18 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F136" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4666,18 +4666,18 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4697,18 +4697,18 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F138" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4728,18 +4728,18 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4759,18 +4759,18 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F140" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4790,18 +4790,18 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F141" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4821,18 +4821,18 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4852,18 +4852,18 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4883,18 +4883,18 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F144" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -4904,26 +4904,584 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>COV-TESTING-RES</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>23</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>11</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>12</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>11</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>10</v>
+      </c>
+      <c r="F158" t="n">
+        <v>12</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>13</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>14</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>11</v>
+      </c>
+      <c r="F161" t="n">
+        <v>15</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
         <is>
           <t>15:00-16:00</t>
         </is>
       </c>
-      <c r="E145" t="n">
+      <c r="E162" t="n">
         <v>11</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F162" t="n">
         <v>16</v>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>12</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>
